--- a/static/templates_base_financiera/2 ESTRATEGIA Y PLAN DE AUDITORIA/10 PLAN DE AUDITORIA/2 CRONOGRAMA DE AUDITORIA.xlsx
+++ b/static/templates_base_financiera/2 ESTRATEGIA Y PLAN DE AUDITORIA/10 PLAN DE AUDITORIA/2 CRONOGRAMA DE AUDITORIA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toño\Desktop\1 AUDITORIA FINANCIERA\2 ARCHIVOS WORD Y EXCEL AUDITORIA FINANCIERA\2 MODULO AUDITORIA FINANCIERA\2 ESTRATEGIA Y PLAN DE AUDITORIA\10 PLAN DE AUDITORIA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\2 ESTRATEGIA Y PLAN DE AUDITORIA\10 PLAN DE AUDITORIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC2F060-5845-4028-BB83-D3F6825149D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="6450" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CRONOGRAMA ANUAL" sheetId="2" r:id="rId1"/>
@@ -192,18 +193,9 @@
     <t xml:space="preserve">Diferencia en Horas </t>
   </si>
   <si>
-    <t xml:space="preserve">                                            Entidad XXXXXXX</t>
-  </si>
-  <si>
     <t>Fecha:</t>
   </si>
   <si>
-    <t xml:space="preserve">                                               Auditoría de Estados Financieros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                  Del 01 de Enero al 31 de Diciembre de 2024</t>
-  </si>
-  <si>
     <t xml:space="preserve">CRONOGRAMA DE ACTIVIDADES FASE DE PLANEACIÓN </t>
   </si>
   <si>
@@ -295,13 +287,22 @@
   </si>
   <si>
     <t>Fecha Planificada</t>
+  </si>
+  <si>
+    <t>Entidad XXXXXXX</t>
+  </si>
+  <si>
+    <t>Auditoría de Estados Financieros</t>
+  </si>
+  <si>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,32 +331,12 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -430,22 +411,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -460,38 +429,35 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,7 +492,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -603,7 +575,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CuadroTexto 2"/>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -669,7 +647,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CuadroTexto 3"/>
+        <xdr:cNvPr id="4" name="CuadroTexto 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -738,7 +722,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="CuadroTexto 4"/>
+        <xdr:cNvPr id="5" name="CuadroTexto 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1049,11 +1039,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:P104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1063,591 +1053,597 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:16" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="P4" s="11"/>
+      <c r="B4" s="9"/>
+      <c r="P4" s="7"/>
     </row>
     <row r="6" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="2"/>
+      <c r="F6" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
       <c r="K6" s="2"/>
       <c r="N6" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="2:16" ht="19.5" x14ac:dyDescent="0.25">
       <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="2"/>
+      <c r="F7" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
       <c r="K7" s="2"/>
       <c r="N7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O7" s="1"/>
-      <c r="P7" s="11"/>
+      <c r="P7" s="7"/>
     </row>
     <row r="8" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="7"/>
+      <c r="F8" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="3"/>
       <c r="N8" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E9" s="2"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12" t="s">
+      <c r="F9" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="3"/>
+      <c r="N9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="12" spans="2:16" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="7"/>
-      <c r="N9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="12" spans="2:16" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B12" s="20" t="s">
+      <c r="E12" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="F12" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="G12" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="H12" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="I12" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="J12" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="K12" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="I12" s="19" t="s">
+      <c r="L12" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="J12" s="19" t="s">
+      <c r="M12" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="K12" s="19" t="s">
+      <c r="N12" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="L12" s="19" t="s">
+    </row>
+    <row r="13" spans="2:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="M12" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="N12" s="19" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+    </row>
+    <row r="14" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="14" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="13" spans="2:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="21" t="s">
+      <c r="C14" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+    </row>
+    <row r="15" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="17" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+    </row>
+    <row r="16" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-    </row>
-    <row r="14" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="21" t="s">
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+    </row>
+    <row r="17" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-    </row>
-    <row r="15" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="21" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+    </row>
+    <row r="18" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-    </row>
-    <row r="16" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="21" t="s">
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+    </row>
+    <row r="19" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-    </row>
-    <row r="17" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="21" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+    </row>
+    <row r="20" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-    </row>
-    <row r="18" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="21" t="s">
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+    </row>
+    <row r="21" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-    </row>
-    <row r="19" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="21" t="s">
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+    </row>
+    <row r="22" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="J19" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-    </row>
-    <row r="20" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="21" t="s">
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="N22" s="11"/>
+    </row>
+    <row r="23" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="J20" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-    </row>
-    <row r="21" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="21" t="s">
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="N23" s="11"/>
+    </row>
+    <row r="24" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="L21" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-    </row>
-    <row r="22" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="M22" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="N22" s="18"/>
-    </row>
-    <row r="23" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="21" t="s">
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D34" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="M23" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="N23" s="18"/>
-    </row>
-    <row r="24" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D34" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="K34" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="K34" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
     </row>
     <row r="35" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K35" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="P38" s="16"/>
+      <c r="P38" s="9"/>
     </row>
     <row r="39" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="P39" s="16"/>
+      <c r="P39" s="9"/>
     </row>
     <row r="40" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="P40" s="16"/>
+      <c r="P40" s="9"/>
     </row>
     <row r="41" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="P41" s="16"/>
+      <c r="P41" s="9"/>
     </row>
     <row r="42" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="P42" s="16"/>
+      <c r="P42" s="9"/>
     </row>
     <row r="43" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="P43" s="16"/>
+      <c r="P43" s="9"/>
     </row>
     <row r="44" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="P44" s="16"/>
+      <c r="P44" s="9"/>
     </row>
     <row r="45" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="P45" s="16"/>
+      <c r="P45" s="9"/>
     </row>
     <row r="46" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="P46" s="16"/>
+      <c r="P46" s="9"/>
     </row>
     <row r="47" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="P47" s="16"/>
+      <c r="P47" s="9"/>
     </row>
     <row r="48" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="P48" s="16"/>
+      <c r="P48" s="9"/>
     </row>
     <row r="49" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P49" s="16"/>
+      <c r="P49" s="9"/>
     </row>
     <row r="50" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P50" s="16"/>
+      <c r="P50" s="9"/>
     </row>
     <row r="51" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P51" s="16"/>
+      <c r="P51" s="9"/>
     </row>
     <row r="52" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P52" s="16"/>
+      <c r="P52" s="9"/>
     </row>
     <row r="53" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P53" s="16"/>
+      <c r="P53" s="9"/>
     </row>
     <row r="54" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P54" s="16"/>
+      <c r="P54" s="9"/>
     </row>
     <row r="55" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P55" s="16"/>
+      <c r="P55" s="9"/>
     </row>
     <row r="56" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P56" s="16"/>
+      <c r="P56" s="9"/>
     </row>
     <row r="57" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P57" s="16"/>
+      <c r="P57" s="9"/>
     </row>
     <row r="58" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P58" s="16"/>
+      <c r="P58" s="9"/>
     </row>
     <row r="59" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P59" s="16"/>
+      <c r="P59" s="9"/>
     </row>
     <row r="60" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P60" s="16"/>
+      <c r="P60" s="9"/>
     </row>
     <row r="61" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P61" s="16"/>
+      <c r="P61" s="9"/>
     </row>
     <row r="62" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P62" s="16"/>
+      <c r="P62" s="9"/>
     </row>
     <row r="63" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P63" s="16"/>
+      <c r="P63" s="9"/>
     </row>
     <row r="64" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P64" s="16"/>
+      <c r="P64" s="9"/>
     </row>
     <row r="65" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P65" s="16"/>
+      <c r="P65" s="9"/>
     </row>
     <row r="66" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P66" s="16"/>
+      <c r="P66" s="9"/>
     </row>
     <row r="67" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P67" s="16"/>
+      <c r="P67" s="9"/>
     </row>
     <row r="68" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P68" s="16"/>
+      <c r="P68" s="9"/>
     </row>
     <row r="69" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P69" s="16"/>
+      <c r="P69" s="9"/>
     </row>
     <row r="70" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P70" s="16"/>
+      <c r="P70" s="9"/>
     </row>
     <row r="71" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P71" s="16"/>
+      <c r="P71" s="9"/>
     </row>
     <row r="72" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P72" s="16"/>
+      <c r="P72" s="9"/>
     </row>
     <row r="73" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P73" s="16"/>
+      <c r="P73" s="9"/>
     </row>
     <row r="74" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P74" s="16"/>
+      <c r="P74" s="9"/>
     </row>
     <row r="75" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P75" s="16"/>
+      <c r="P75" s="9"/>
     </row>
     <row r="76" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P76" s="16"/>
+      <c r="P76" s="9"/>
     </row>
     <row r="77" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P77" s="16"/>
+      <c r="P77" s="9"/>
     </row>
     <row r="78" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P78" s="16"/>
+      <c r="P78" s="9"/>
     </row>
     <row r="79" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P79" s="16"/>
+      <c r="P79" s="9"/>
     </row>
     <row r="80" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P80" s="16"/>
+      <c r="P80" s="9"/>
     </row>
     <row r="81" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P81" s="16"/>
+      <c r="P81" s="9"/>
     </row>
     <row r="82" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P82" s="16"/>
+      <c r="P82" s="9"/>
     </row>
     <row r="83" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P83" s="16"/>
+      <c r="P83" s="9"/>
     </row>
     <row r="84" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P84" s="16"/>
+      <c r="P84" s="9"/>
     </row>
     <row r="85" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P85" s="16"/>
+      <c r="P85" s="9"/>
     </row>
     <row r="86" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P86" s="16"/>
+      <c r="P86" s="9"/>
     </row>
     <row r="87" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P87" s="16"/>
+      <c r="P87" s="9"/>
     </row>
     <row r="88" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P88" s="16"/>
+      <c r="P88" s="9"/>
     </row>
     <row r="89" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P89" s="16"/>
+      <c r="P89" s="9"/>
     </row>
     <row r="90" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P90" s="16"/>
+      <c r="P90" s="9"/>
     </row>
     <row r="91" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P91" s="16"/>
+      <c r="P91" s="9"/>
     </row>
     <row r="92" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P92" s="16"/>
+      <c r="P92" s="9"/>
     </row>
     <row r="93" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P93" s="16"/>
+      <c r="P93" s="9"/>
     </row>
     <row r="94" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P94" s="16"/>
+      <c r="P94" s="9"/>
     </row>
     <row r="95" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P95" s="16"/>
+      <c r="P95" s="9"/>
     </row>
     <row r="96" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P96" s="16"/>
+      <c r="P96" s="9"/>
     </row>
     <row r="97" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P97" s="16"/>
+      <c r="P97" s="9"/>
     </row>
     <row r="98" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P98" s="16"/>
+      <c r="P98" s="9"/>
     </row>
     <row r="99" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P99" s="16"/>
+      <c r="P99" s="9"/>
     </row>
     <row r="100" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P100" s="16"/>
+      <c r="P100" s="9"/>
     </row>
     <row r="101" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P101" s="16"/>
+      <c r="P101" s="9"/>
     </row>
     <row r="102" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P102" s="16"/>
+      <c r="P102" s="9"/>
     </row>
     <row r="103" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P103" s="16"/>
+      <c r="P103" s="9"/>
     </row>
     <row r="104" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P104" s="16"/>
+      <c r="P104" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="F9:J9"/>
+  </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="65" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -1655,11 +1651,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1675,520 +1671,526 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="16"/>
-      <c r="P3" s="11"/>
+      <c r="B3" s="9"/>
+      <c r="P3" s="7"/>
     </row>
     <row r="5" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E5" s="2"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="F5" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
     </row>
     <row r="6" spans="2:16" ht="19.5" x14ac:dyDescent="0.25">
       <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="P6" s="11"/>
+      <c r="F6" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="P6" s="7"/>
     </row>
     <row r="7" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="7"/>
+      <c r="F7" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
     </row>
     <row r="8" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="7"/>
+      <c r="F8" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
     </row>
     <row r="10" spans="2:16" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="K10" s="15" t="s">
+      <c r="J10" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="L10" s="15" t="s">
+      <c r="L10" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="M10" s="15" t="s">
+      <c r="M10" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="N10" s="15" t="s">
+      <c r="N10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="O10" s="15" t="s">
+      <c r="O10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="P10" s="15" t="s">
+      <c r="P10" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="8">
+      <c r="B11" s="4">
         <v>1</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8" t="s">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="5">
         <v>45672</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="4">
         <v>5</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="5">
         <v>45677</v>
       </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="10">
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="6">
         <v>1</v>
       </c>
-      <c r="O11" s="8" t="s">
+      <c r="O11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P11" s="8" t="s">
+      <c r="P11" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="8">
+      <c r="B12" s="4">
         <v>2</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8" t="s">
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="5">
         <v>45678</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="4">
         <v>10</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="5">
         <v>45688</v>
       </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="10">
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="6">
         <v>0.8</v>
       </c>
-      <c r="O12" s="8" t="s">
+      <c r="O12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P12" s="8" t="s">
+      <c r="P12" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="8">
+      <c r="B13" s="4">
         <v>3</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8" t="s">
+      <c r="F13" s="4"/>
+      <c r="G13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="5">
         <v>45689</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="4">
         <v>7</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="5">
         <v>45696</v>
       </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="10">
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="6">
         <v>0</v>
       </c>
-      <c r="O13" s="8" t="s">
+      <c r="O13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P13" s="8" t="s">
+      <c r="P13" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="B14" s="8">
+      <c r="B14" s="4">
         <v>4</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8" t="s">
+      <c r="F14" s="4"/>
+      <c r="G14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="5">
         <v>45697</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="4">
         <v>5</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="5">
         <v>45702</v>
       </c>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="10">
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="6">
         <v>0</v>
       </c>
-      <c r="O14" s="8" t="s">
+      <c r="O14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P14" s="8" t="s">
+      <c r="P14" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="8">
+      <c r="B15" s="4">
         <v>5</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8" t="s">
+      <c r="F15" s="4"/>
+      <c r="G15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="5">
         <v>45703</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="4">
         <v>8</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="5">
         <v>45711</v>
       </c>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="10">
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="6">
         <v>0</v>
       </c>
-      <c r="O15" s="8" t="s">
+      <c r="O15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P15" s="8" t="s">
+      <c r="P15" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="B16" s="8">
+      <c r="B16" s="4">
         <v>6</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8" t="s">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="5">
         <v>45712</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="4">
         <v>4</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="5">
         <v>45716</v>
       </c>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="10">
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="6">
         <v>0</v>
       </c>
-      <c r="O16" s="8" t="s">
+      <c r="O16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P16" s="8" t="s">
+      <c r="P16" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="B17" s="8">
+      <c r="B17" s="4">
         <v>7</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8" t="s">
+      <c r="F17" s="4"/>
+      <c r="G17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="5">
         <v>45717</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="4">
         <v>5</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="5">
         <v>45722</v>
       </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="10">
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="6">
         <v>0</v>
       </c>
-      <c r="O17" s="8" t="s">
+      <c r="O17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P17" s="8" t="s">
+      <c r="P17" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="B18" s="8">
+      <c r="B18" s="4">
         <v>8</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8" t="s">
+      <c r="F18" s="4"/>
+      <c r="G18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="5">
         <v>45723</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="4">
         <v>3</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="5">
         <v>45726</v>
       </c>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="10">
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="6">
         <v>0</v>
       </c>
-      <c r="O18" s="8" t="s">
+      <c r="O18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P18" s="8" t="s">
+      <c r="P18" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="2:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="B19" s="8">
+      <c r="B19" s="4">
         <v>9</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8" t="s">
+      <c r="F19" s="4"/>
+      <c r="G19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="5">
         <v>45727</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="4">
         <v>4</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="5">
         <v>45731</v>
       </c>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="10">
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="6">
         <v>0</v>
       </c>
-      <c r="O19" s="8" t="s">
+      <c r="O19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P19" s="8" t="s">
+      <c r="P19" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="8">
+      <c r="B20" s="4">
         <v>10</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8" t="s">
+      <c r="F20" s="4"/>
+      <c r="G20" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="5">
         <v>45732</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="4">
         <v>10</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="5">
         <v>45742</v>
       </c>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="10">
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="6">
         <v>0</v>
       </c>
-      <c r="O20" s="8" t="s">
+      <c r="O20" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P20" s="8" t="s">
+      <c r="P20" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C32" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="16"/>
-      <c r="J32" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
+      <c r="C32" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="15"/>
+      <c r="E32" s="9"/>
+      <c r="J32" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
     </row>
     <row r="33" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J33" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="F8:K8"/>
+  </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="50" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
